--- a/data/trans_orig/P36B06_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B06_R-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E33505E3-A864-4C87-9F6A-413E72129CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C9C2735-5B2D-429E-885A-1FDA3A614CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6782659A-4542-4824-B24E-C9432CD7E6A4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9C3E04EB-4EBB-47D8-BE80-E98C7D673365}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="482">
   <si>
     <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -76,1384 +76,1414 @@
     <t>71,98%</t>
   </si>
   <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
   </si>
   <si>
     <t>80,15%</t>
   </si>
   <si>
-    <t>74,43%</t>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
   </si>
   <si>
     <t>84,77%</t>
   </si>
   <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
   </si>
   <si>
     <t>15,23%</t>
   </si>
   <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2016 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
   </si>
   <si>
     <t>82,7%</t>
   </si>
   <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
   </si>
   <si>
     <t>17,3%</t>
   </si>
   <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2015 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
+    <t>19,24%</t>
   </si>
 </sst>
 </file>
@@ -1865,7 +1895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD4FDF8E-46EB-4433-81D6-60495E5673E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31FA116A-45AB-4B0F-9623-A65ECF18949E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3235,7 +3265,7 @@
         <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>2683</v>
@@ -3244,13 +3274,13 @@
         <v>2756435</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>5130</v>
@@ -3259,13 +3289,13 @@
         <v>5252388</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3280,13 +3310,13 @@
         <v>777718</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>612</v>
@@ -3295,13 +3325,13 @@
         <v>620727</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>1376</v>
@@ -3310,13 +3340,13 @@
         <v>1398445</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,7 +3402,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3396,7 +3426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D092FC2-9BC5-45A3-AAEB-78465A5DCB0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14D836A-22EE-40C0-9C0B-A7925AFDB6A6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3413,7 +3443,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3518,39 +3548,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3563,39 +3593,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,39 +3638,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,13 +3687,13 @@
         <v>430235</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>419</v>
@@ -3672,13 +3702,13 @@
         <v>460068</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>818</v>
@@ -3687,13 +3717,13 @@
         <v>890303</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3708,13 +3738,13 @@
         <v>74252</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>61</v>
@@ -3723,13 +3753,13 @@
         <v>63697</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>133</v>
@@ -3738,13 +3768,13 @@
         <v>137949</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,13 +3842,13 @@
         <v>285474</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>294</v>
@@ -3827,13 +3857,13 @@
         <v>316283</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>573</v>
@@ -3842,13 +3872,13 @@
         <v>601756</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,13 +3893,13 @@
         <v>38572</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H11" s="7">
         <v>22</v>
@@ -3878,13 +3908,13 @@
         <v>23751</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>62</v>
@@ -3893,13 +3923,13 @@
         <v>62324</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,28 +3997,28 @@
         <v>528197</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H13" s="7">
         <v>539</v>
       </c>
       <c r="I13" s="7">
-        <v>581670</v>
+        <v>581669</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M13" s="7">
         <v>1030</v>
@@ -3997,13 +4027,13 @@
         <v>1109868</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,13 +4048,13 @@
         <v>140523</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>86</v>
@@ -4033,13 +4063,13 @@
         <v>92288</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>221</v>
@@ -4048,13 +4078,13 @@
         <v>232810</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4081,7 +4111,7 @@
         <v>625</v>
       </c>
       <c r="I15" s="7">
-        <v>673958</v>
+        <v>673957</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4122,13 +4152,13 @@
         <v>158376</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H16" s="7">
         <v>183</v>
@@ -4137,13 +4167,13 @@
         <v>190930</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M16" s="7">
         <v>329</v>
@@ -4152,13 +4182,13 @@
         <v>349306</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>245</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4173,13 +4203,13 @@
         <v>54242</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -4188,13 +4218,13 @@
         <v>28661</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M17" s="7">
         <v>79</v>
@@ -4203,10 +4233,10 @@
         <v>82903</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>202</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>254</v>
@@ -4292,13 +4322,13 @@
         <v>248477</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M19" s="7">
         <v>470</v>
@@ -4307,13 +4337,13 @@
         <v>492043</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4328,13 +4358,13 @@
         <v>29456</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H20" s="7">
         <v>28</v>
@@ -4343,13 +4373,13 @@
         <v>30467</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>86</v>
+        <v>267</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M20" s="7">
         <v>58</v>
@@ -4358,13 +4388,13 @@
         <v>59923</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4432,13 +4462,13 @@
         <v>561975</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H22" s="7">
         <v>558</v>
@@ -4447,13 +4477,13 @@
         <v>606066</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M22" s="7">
         <v>1079</v>
@@ -4462,13 +4492,13 @@
         <v>1168041</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>280</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4483,13 +4513,13 @@
         <v>97750</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H23" s="7">
         <v>76</v>
@@ -4498,13 +4528,13 @@
         <v>84762</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="M23" s="7">
         <v>170</v>
@@ -4513,13 +4543,13 @@
         <v>182512</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>137</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,13 +4617,13 @@
         <v>646457</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H25" s="7">
         <v>657</v>
@@ -4602,13 +4632,13 @@
         <v>712366</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="M25" s="7">
         <v>1250</v>
@@ -4617,13 +4647,13 @@
         <v>1358822</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>16</v>
+        <v>297</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4638,13 +4668,13 @@
         <v>132641</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="H26" s="7">
         <v>100</v>
@@ -4653,13 +4683,13 @@
         <v>111487</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="M26" s="7">
         <v>224</v>
@@ -4668,13 +4698,13 @@
         <v>244129</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>25</v>
+        <v>306</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4742,13 +4772,13 @@
         <v>2854280</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="H28" s="7">
         <v>2890</v>
@@ -4757,28 +4787,28 @@
         <v>3115859</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>110</v>
+        <v>313</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="M28" s="7">
         <v>5549</v>
       </c>
       <c r="N28" s="7">
-        <v>5970139</v>
+        <v>5970140</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4793,13 +4823,13 @@
         <v>567436</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="H29" s="7">
         <v>402</v>
@@ -4808,13 +4838,13 @@
         <v>435113</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>118</v>
+        <v>322</v>
       </c>
       <c r="M29" s="7">
         <v>947</v>
@@ -4823,13 +4853,13 @@
         <v>1002549</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4871,7 +4901,7 @@
         <v>6496</v>
       </c>
       <c r="N30" s="7">
-        <v>6972688</v>
+        <v>6972689</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -4885,7 +4915,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -4909,7 +4939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F60FBC-013A-41C7-8840-34125F9891C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336644F5-DD71-461D-BC29-294C96388CF9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4926,7 +4956,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5033,13 +5063,13 @@
         <v>222238</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="H4" s="7">
         <v>222</v>
@@ -5048,13 +5078,13 @@
         <v>233251</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="M4" s="7">
         <v>425</v>
@@ -5063,13 +5093,13 @@
         <v>455490</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5084,13 +5114,13 @@
         <v>69490</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="H5" s="7">
         <v>55</v>
@@ -5099,13 +5129,13 @@
         <v>55452</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="M5" s="7">
         <v>116</v>
@@ -5114,13 +5144,13 @@
         <v>124941</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5188,13 +5218,13 @@
         <v>430183</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="H7" s="7">
         <v>441</v>
@@ -5203,13 +5233,13 @@
         <v>478612</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="M7" s="7">
         <v>847</v>
@@ -5218,13 +5248,13 @@
         <v>908795</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5239,13 +5269,13 @@
         <v>72392</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="H8" s="7">
         <v>43</v>
@@ -5254,13 +5284,13 @@
         <v>44472</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="M8" s="7">
         <v>112</v>
@@ -5269,13 +5299,13 @@
         <v>116864</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5343,13 +5373,13 @@
         <v>266605</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>274</v>
+        <v>364</v>
       </c>
       <c r="H10" s="7">
         <v>287</v>
@@ -5358,13 +5388,13 @@
         <v>292186</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="M10" s="7">
         <v>568</v>
@@ -5373,13 +5403,13 @@
         <v>558791</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>361</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5394,13 +5424,13 @@
         <v>51960</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>282</v>
+        <v>371</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="H11" s="7">
         <v>45</v>
@@ -5409,13 +5439,13 @@
         <v>44123</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="M11" s="7">
         <v>99</v>
@@ -5424,13 +5454,13 @@
         <v>96083</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>368</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5498,13 +5528,13 @@
         <v>295909</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="H13" s="7">
         <v>306</v>
@@ -5513,13 +5543,13 @@
         <v>332904</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="M13" s="7">
         <v>592</v>
@@ -5528,13 +5558,13 @@
         <v>628813</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5549,13 +5579,13 @@
         <v>74055</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="H14" s="7">
         <v>52</v>
@@ -5564,13 +5594,13 @@
         <v>54379</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="M14" s="7">
         <v>120</v>
@@ -5579,13 +5609,13 @@
         <v>128434</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5653,13 +5683,13 @@
         <v>193010</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="H16" s="7">
         <v>210</v>
@@ -5668,13 +5698,13 @@
         <v>205549</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="M16" s="7">
         <v>404</v>
@@ -5683,13 +5713,13 @@
         <v>398559</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>394</v>
+        <v>56</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5704,13 +5734,13 @@
         <v>18211</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -5719,13 +5749,13 @@
         <v>13038</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="M17" s="7">
         <v>31</v>
@@ -5734,13 +5764,13 @@
         <v>31249</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>403</v>
+        <v>64</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5808,13 +5838,13 @@
         <v>161463</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="H19" s="7">
         <v>170</v>
@@ -5823,13 +5853,13 @@
         <v>177583</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="M19" s="7">
         <v>331</v>
@@ -5838,13 +5868,13 @@
         <v>339046</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5859,13 +5889,13 @@
         <v>101660</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="H20" s="7">
         <v>92</v>
@@ -5874,13 +5904,13 @@
         <v>94520</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="M20" s="7">
         <v>190</v>
@@ -5889,13 +5919,13 @@
         <v>196180</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5963,13 +5993,13 @@
         <v>471495</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="H22" s="7">
         <v>483</v>
@@ -5978,13 +6008,13 @@
         <v>520977</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="M22" s="7">
         <v>904</v>
@@ -5993,13 +6023,13 @@
         <v>992471</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6014,13 +6044,13 @@
         <v>181283</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="H23" s="7">
         <v>162</v>
@@ -6029,28 +6059,28 @@
         <v>169205</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="M23" s="7">
         <v>318</v>
       </c>
       <c r="N23" s="7">
-        <v>350488</v>
+        <v>350489</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6092,7 +6122,7 @@
         <v>1222</v>
       </c>
       <c r="N24" s="7">
-        <v>1342959</v>
+        <v>1342960</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -6118,13 +6148,13 @@
         <v>670402</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="H25" s="7">
         <v>647</v>
@@ -6133,13 +6163,13 @@
         <v>709729</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>354</v>
+        <v>452</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="M25" s="7">
         <v>1293</v>
@@ -6148,13 +6178,13 @@
         <v>1380131</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6169,13 +6199,13 @@
         <v>107194</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="H26" s="7">
         <v>105</v>
@@ -6184,13 +6214,13 @@
         <v>112733</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>362</v>
+        <v>462</v>
       </c>
       <c r="M26" s="7">
         <v>208</v>
@@ -6199,13 +6229,13 @@
         <v>219927</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6273,13 +6303,13 @@
         <v>2711305</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>171</v>
+        <v>466</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="H28" s="7">
         <v>2766</v>
@@ -6288,13 +6318,13 @@
         <v>2950790</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>58</v>
+        <v>243</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="M28" s="7">
         <v>5364</v>
@@ -6303,13 +6333,13 @@
         <v>5662096</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6324,13 +6354,13 @@
         <v>676245</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>178</v>
+        <v>474</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="H29" s="7">
         <v>567</v>
@@ -6339,13 +6369,13 @@
         <v>587922</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>68</v>
+        <v>252</v>
       </c>
       <c r="M29" s="7">
         <v>1194</v>
@@ -6354,13 +6384,13 @@
         <v>1264167</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6416,7 +6446,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B06_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B06_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C9C2735-5B2D-429E-885A-1FDA3A614CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18045CAC-9FF3-4325-A524-0DAE638C2D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9C3E04EB-4EBB-47D8-BE80-E98C7D673365}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BE4B254F-8DCB-41BB-BF6B-62DB6DF0E687}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="474">
   <si>
     <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>71,98%</t>
   </si>
   <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
   </si>
   <si>
     <t>80,15%</t>
   </si>
   <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
   </si>
   <si>
     <t>75,97%</t>
   </si>
   <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>28,02%</t>
   </si>
   <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
   </si>
   <si>
     <t>19,85%</t>
   </si>
   <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
   </si>
   <si>
     <t>24,03%</t>
   </si>
   <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>71,47%</t>
   </si>
   <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
   </si>
   <si>
     <t>73,35%</t>
   </si>
   <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
   </si>
   <si>
     <t>72,42%</t>
   </si>
   <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
   </si>
   <si>
     <t>28,53%</t>
   </si>
   <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
   </si>
   <si>
     <t>26,65%</t>
   </si>
   <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
   </si>
   <si>
     <t>27,58%</t>
   </si>
   <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -196,7 +196,7 @@
     <t>80,6%</t>
   </si>
   <si>
-    <t>75,94%</t>
+    <t>75,96%</t>
   </si>
   <si>
     <t>84,78%</t>
@@ -205,1285 +205,1261 @@
     <t>89,79%</t>
   </si>
   <si>
-    <t>86,6%</t>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2016 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
   </si>
   <si>
     <t>92,73%</t>
   </si>
   <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
   </si>
   <si>
     <t>7,27%</t>
   </si>
   <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
   </si>
   <si>
     <t>84,62%</t>
   </si>
   <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
   </si>
   <si>
     <t>15,38%</t>
   </si>
   <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2016 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
+    <t>17,97%</t>
   </si>
   <si>
     <t>18,25%</t>
   </si>
   <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
   </si>
 </sst>
 </file>
@@ -1895,7 +1871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31FA116A-45AB-4B0F-9623-A65ECF18949E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22155EA6-0915-4E9C-A265-7F111BBC01C4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3426,7 +3402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14D836A-22EE-40C0-9C0B-A7925AFDB6A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222E03BE-3D0A-4755-A514-8D50FCB798EE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3872,13 +3848,13 @@
         <v>601756</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3893,13 +3869,13 @@
         <v>38572</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H11" s="7">
         <v>22</v>
@@ -3908,13 +3884,13 @@
         <v>23751</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>62</v>
@@ -3923,13 +3899,13 @@
         <v>62324</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3997,13 +3973,13 @@
         <v>528197</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>221</v>
+        <v>112</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H13" s="7">
         <v>539</v>
@@ -4012,13 +3988,13 @@
         <v>581669</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M13" s="7">
         <v>1030</v>
@@ -4027,13 +4003,13 @@
         <v>1109868</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4048,13 +4024,13 @@
         <v>140523</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>86</v>
@@ -4063,13 +4039,13 @@
         <v>92288</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>221</v>
@@ -4078,13 +4054,13 @@
         <v>232810</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4152,13 +4128,13 @@
         <v>158376</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>183</v>
@@ -4167,13 +4143,13 @@
         <v>190930</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>329</v>
@@ -4182,13 +4158,13 @@
         <v>349306</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,13 +4179,13 @@
         <v>54242</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -4218,13 +4194,13 @@
         <v>28661</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>79</v>
@@ -4233,13 +4209,13 @@
         <v>82903</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4307,13 +4283,13 @@
         <v>243566</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H19" s="7">
         <v>240</v>
@@ -4322,13 +4298,13 @@
         <v>248477</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M19" s="7">
         <v>470</v>
@@ -4337,13 +4313,13 @@
         <v>492043</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4358,13 +4334,13 @@
         <v>29456</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H20" s="7">
         <v>28</v>
@@ -4373,13 +4349,13 @@
         <v>30467</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M20" s="7">
         <v>58</v>
@@ -4388,13 +4364,13 @@
         <v>59923</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4462,13 +4438,13 @@
         <v>561975</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H22" s="7">
         <v>558</v>
@@ -4477,13 +4453,13 @@
         <v>606066</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M22" s="7">
         <v>1079</v>
@@ -4492,13 +4468,13 @@
         <v>1168041</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4513,13 +4489,13 @@
         <v>97750</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H23" s="7">
         <v>76</v>
@@ -4528,13 +4504,13 @@
         <v>84762</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M23" s="7">
         <v>170</v>
@@ -4543,13 +4519,13 @@
         <v>182512</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,13 +4593,13 @@
         <v>646457</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H25" s="7">
         <v>657</v>
@@ -4632,13 +4608,13 @@
         <v>712366</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M25" s="7">
         <v>1250</v>
@@ -4647,13 +4623,13 @@
         <v>1358822</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4668,13 +4644,13 @@
         <v>132641</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="H26" s="7">
         <v>100</v>
@@ -4683,13 +4659,13 @@
         <v>111487</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M26" s="7">
         <v>224</v>
@@ -4698,13 +4674,13 @@
         <v>244129</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4769,16 +4745,16 @@
         <v>2659</v>
       </c>
       <c r="D28" s="7">
-        <v>2854280</v>
+        <v>2854281</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="H28" s="7">
         <v>2890</v>
@@ -4787,13 +4763,13 @@
         <v>3115859</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M28" s="7">
         <v>5549</v>
@@ -4802,13 +4778,13 @@
         <v>5970140</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>315</v>
+        <v>116</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4823,13 +4799,13 @@
         <v>567436</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="H29" s="7">
         <v>402</v>
@@ -4838,13 +4814,13 @@
         <v>435113</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="M29" s="7">
         <v>947</v>
@@ -4853,13 +4829,13 @@
         <v>1002549</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>323</v>
+        <v>124</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4871,7 +4847,7 @@
         <v>3204</v>
       </c>
       <c r="D30" s="7">
-        <v>3421716</v>
+        <v>3421717</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -4939,7 +4915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336644F5-DD71-461D-BC29-294C96388CF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77E6EEB-AF30-4947-B2BD-4841C18FF540}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4956,7 +4932,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5063,13 +5039,13 @@
         <v>222238</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="H4" s="7">
         <v>222</v>
@@ -5078,13 +5054,13 @@
         <v>233251</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>331</v>
+        <v>57</v>
       </c>
       <c r="M4" s="7">
         <v>425</v>
@@ -5093,13 +5069,13 @@
         <v>455490</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>333</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>334</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5114,13 +5090,13 @@
         <v>69490</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H5" s="7">
         <v>55</v>
@@ -5129,13 +5105,13 @@
         <v>55452</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>339</v>
+        <v>66</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="M5" s="7">
         <v>116</v>
@@ -5144,13 +5120,13 @@
         <v>124941</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>342</v>
+        <v>68</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>343</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5218,13 +5194,13 @@
         <v>430183</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="H7" s="7">
         <v>441</v>
@@ -5233,13 +5209,13 @@
         <v>478612</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="M7" s="7">
         <v>847</v>
@@ -5248,13 +5224,13 @@
         <v>908795</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5269,13 +5245,13 @@
         <v>72392</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="H8" s="7">
         <v>43</v>
@@ -5284,13 +5260,13 @@
         <v>44472</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="M8" s="7">
         <v>112</v>
@@ -5299,13 +5275,13 @@
         <v>116864</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,13 +5349,13 @@
         <v>266605</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="H10" s="7">
         <v>287</v>
@@ -5388,13 +5364,13 @@
         <v>292186</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>366</v>
+        <v>131</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="M10" s="7">
         <v>568</v>
@@ -5403,13 +5379,13 @@
         <v>558791</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5424,13 +5400,13 @@
         <v>51960</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="H11" s="7">
         <v>45</v>
@@ -5439,13 +5415,13 @@
         <v>44123</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>375</v>
+        <v>141</v>
       </c>
       <c r="M11" s="7">
         <v>99</v>
@@ -5454,13 +5430,13 @@
         <v>96083</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>368</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,13 +5504,13 @@
         <v>295909</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="H13" s="7">
         <v>306</v>
@@ -5543,13 +5519,13 @@
         <v>332904</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="M13" s="7">
         <v>592</v>
@@ -5558,13 +5534,13 @@
         <v>628813</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>386</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5579,13 +5555,13 @@
         <v>74055</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="H14" s="7">
         <v>52</v>
@@ -5594,13 +5570,13 @@
         <v>54379</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="M14" s="7">
         <v>120</v>
@@ -5609,13 +5585,13 @@
         <v>128434</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>394</v>
+        <v>345</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5683,13 +5659,13 @@
         <v>193010</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="H16" s="7">
         <v>210</v>
@@ -5698,13 +5674,13 @@
         <v>205549</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="M16" s="7">
         <v>404</v>
@@ -5713,13 +5689,13 @@
         <v>398559</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>56</v>
+        <v>392</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5734,13 +5710,13 @@
         <v>18211</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -5749,13 +5725,13 @@
         <v>13038</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="M17" s="7">
         <v>31</v>
@@ -5764,13 +5740,13 @@
         <v>31249</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>64</v>
+        <v>401</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5838,13 +5814,13 @@
         <v>161463</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="H19" s="7">
         <v>170</v>
@@ -5853,13 +5829,13 @@
         <v>177583</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="M19" s="7">
         <v>331</v>
@@ -5868,13 +5844,13 @@
         <v>339046</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5889,13 +5865,13 @@
         <v>101660</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="H20" s="7">
         <v>92</v>
@@ -5904,13 +5880,13 @@
         <v>94520</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="M20" s="7">
         <v>190</v>
@@ -5919,13 +5895,13 @@
         <v>196180</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5993,13 +5969,13 @@
         <v>471495</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="H22" s="7">
         <v>483</v>
@@ -6008,13 +5984,13 @@
         <v>520977</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="M22" s="7">
         <v>904</v>
@@ -6023,13 +5999,13 @@
         <v>992471</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6044,13 +6020,13 @@
         <v>181283</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="H23" s="7">
         <v>162</v>
@@ -6059,13 +6035,13 @@
         <v>169205</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="M23" s="7">
         <v>318</v>
@@ -6074,13 +6050,13 @@
         <v>350489</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6148,13 +6124,13 @@
         <v>670402</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>450</v>
+        <v>193</v>
       </c>
       <c r="H25" s="7">
         <v>647</v>
@@ -6163,13 +6139,13 @@
         <v>709729</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="M25" s="7">
         <v>1293</v>
@@ -6178,13 +6154,13 @@
         <v>1380131</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6199,13 +6175,13 @@
         <v>107194</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>458</v>
+        <v>201</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="H26" s="7">
         <v>105</v>
@@ -6214,13 +6190,13 @@
         <v>112733</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="M26" s="7">
         <v>208</v>
@@ -6229,13 +6205,13 @@
         <v>219927</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6303,13 +6279,13 @@
         <v>2711305</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="H28" s="7">
         <v>2766</v>
@@ -6318,13 +6294,13 @@
         <v>2950790</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>243</v>
+        <v>460</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="M28" s="7">
         <v>5364</v>
@@ -6333,13 +6309,13 @@
         <v>5662096</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6354,13 +6330,13 @@
         <v>676245</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="H29" s="7">
         <v>567</v>
@@ -6369,13 +6345,13 @@
         <v>587922</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>252</v>
+        <v>470</v>
       </c>
       <c r="M29" s="7">
         <v>1194</v>
@@ -6384,13 +6360,13 @@
         <v>1264167</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P36B06_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B06_R-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18045CAC-9FF3-4325-A524-0DAE638C2D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47DFF674-8FB6-4111-B1CF-C41583846D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BE4B254F-8DCB-41BB-BF6B-62DB6DF0E687}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4AED6F35-F329-4286-8A6F-6D0AA48D13E9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="493">
   <si>
     <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -592,7 +592,58 @@
     <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2012 (Tasa respuesta: 99,83%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
   </si>
   <si>
     <t>85,28%</t>
@@ -697,52 +748,58 @@
     <t>11,82%</t>
   </si>
   <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
   </si>
   <si>
     <t>74,49%</t>
@@ -1871,7 +1928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22155EA6-0915-4E9C-A265-7F111BBC01C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900FA14E-844D-4102-87B9-CA93E9F9E345}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3402,7 +3459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222E03BE-3D0A-4755-A514-8D50FCB798EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A706532-D1C8-441F-ADAD-B8C803D50043}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3520,43 +3577,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>208</v>
+      </c>
+      <c r="D4" s="7">
+        <v>220254</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>196</v>
+      </c>
+      <c r="I4" s="7">
+        <v>220893</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>404</v>
+      </c>
+      <c r="N4" s="7">
+        <v>441147</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,43 +3628,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="D5" s="7">
+        <v>74484</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="I5" s="7">
+        <v>64113</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>132</v>
+      </c>
+      <c r="N5" s="7">
+        <v>138597</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3610,43 +3679,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>254</v>
+      </c>
+      <c r="I6" s="7">
+        <v>285006</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>536</v>
+      </c>
+      <c r="N6" s="7">
+        <v>579744</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3663,13 +3738,13 @@
         <v>430235</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="H7" s="7">
         <v>419</v>
@@ -3678,13 +3753,13 @@
         <v>460068</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="M7" s="7">
         <v>818</v>
@@ -3693,13 +3768,13 @@
         <v>890303</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3714,13 +3789,13 @@
         <v>74252</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="H8" s="7">
         <v>61</v>
@@ -3729,13 +3804,13 @@
         <v>63697</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="M8" s="7">
         <v>133</v>
@@ -3744,13 +3819,13 @@
         <v>137949</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,13 +3893,13 @@
         <v>285474</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="H10" s="7">
         <v>294</v>
@@ -3833,13 +3908,13 @@
         <v>316283</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="M10" s="7">
         <v>573</v>
@@ -3848,13 +3923,13 @@
         <v>601756</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3869,13 +3944,13 @@
         <v>38572</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="H11" s="7">
         <v>22</v>
@@ -3884,13 +3959,13 @@
         <v>23751</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="M11" s="7">
         <v>62</v>
@@ -3899,13 +3974,13 @@
         <v>62324</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,49 +4042,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>491</v>
+        <v>283</v>
       </c>
       <c r="D13" s="7">
-        <v>528197</v>
+        <v>307943</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>112</v>
+        <v>236</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="H13" s="7">
-        <v>539</v>
+        <v>343</v>
       </c>
       <c r="I13" s="7">
-        <v>581669</v>
+        <v>360776</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="M13" s="7">
-        <v>1030</v>
+        <v>626</v>
       </c>
       <c r="N13" s="7">
-        <v>1109868</v>
+        <v>668719</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,49 +4093,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="D14" s="7">
-        <v>140523</v>
+        <v>66039</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>122</v>
+        <v>245</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="H14" s="7">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="I14" s="7">
-        <v>92288</v>
+        <v>28175</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="M14" s="7">
-        <v>221</v>
+        <v>89</v>
       </c>
       <c r="N14" s="7">
-        <v>232810</v>
+        <v>94214</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4069,10 +4144,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4084,10 +4159,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>625</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>673957</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4099,10 +4174,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1251</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1342678</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4128,13 +4203,13 @@
         <v>158376</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="H16" s="7">
         <v>183</v>
@@ -4143,13 +4218,13 @@
         <v>190930</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="M16" s="7">
         <v>329</v>
@@ -4158,13 +4233,13 @@
         <v>349306</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4179,13 +4254,13 @@
         <v>54242</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -4194,13 +4269,13 @@
         <v>28661</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="M17" s="7">
         <v>79</v>
@@ -4209,13 +4284,13 @@
         <v>82903</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4283,13 +4358,13 @@
         <v>243566</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="H19" s="7">
         <v>240</v>
@@ -4298,13 +4373,13 @@
         <v>248477</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="M19" s="7">
         <v>470</v>
@@ -4313,13 +4388,13 @@
         <v>492043</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4334,13 +4409,13 @@
         <v>29456</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="H20" s="7">
         <v>28</v>
@@ -4349,13 +4424,13 @@
         <v>30467</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="M20" s="7">
         <v>58</v>
@@ -4364,13 +4439,13 @@
         <v>59923</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4438,13 +4513,13 @@
         <v>561975</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="H22" s="7">
         <v>558</v>
@@ -4453,13 +4528,13 @@
         <v>606066</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="M22" s="7">
         <v>1079</v>
@@ -4468,13 +4543,13 @@
         <v>1168041</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4489,13 +4564,13 @@
         <v>97750</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="H23" s="7">
         <v>76</v>
@@ -4504,13 +4579,13 @@
         <v>84762</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="M23" s="7">
         <v>170</v>
@@ -4519,13 +4594,13 @@
         <v>182512</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4593,13 +4668,13 @@
         <v>646457</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="H25" s="7">
         <v>657</v>
@@ -4608,13 +4683,13 @@
         <v>712366</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="M25" s="7">
         <v>1250</v>
@@ -4623,13 +4698,13 @@
         <v>1358822</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4644,13 +4719,13 @@
         <v>132641</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="H26" s="7">
         <v>100</v>
@@ -4659,13 +4734,13 @@
         <v>111487</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="M26" s="7">
         <v>224</v>
@@ -4674,13 +4749,13 @@
         <v>244129</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4748,13 +4823,13 @@
         <v>2854281</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="H28" s="7">
         <v>2890</v>
@@ -4763,13 +4838,13 @@
         <v>3115859</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="M28" s="7">
         <v>5549</v>
@@ -4781,10 +4856,10 @@
         <v>116</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,13 +4874,13 @@
         <v>567436</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="H29" s="7">
         <v>402</v>
@@ -4814,13 +4889,13 @@
         <v>435113</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="M29" s="7">
         <v>947</v>
@@ -4832,10 +4907,10 @@
         <v>124</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4915,7 +4990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77E6EEB-AF30-4947-B2BD-4841C18FF540}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C337D4-9379-4A79-9D41-2B96A49250EC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4932,7 +5007,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5039,13 +5114,13 @@
         <v>222238</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="H4" s="7">
         <v>222</v>
@@ -5054,10 +5129,10 @@
         <v>233251</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>57</v>
@@ -5069,7 +5144,7 @@
         <v>455490</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>165</v>
@@ -5090,13 +5165,13 @@
         <v>69490</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="H5" s="7">
         <v>55</v>
@@ -5105,13 +5180,13 @@
         <v>55452</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>66</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="M5" s="7">
         <v>116</v>
@@ -5120,7 +5195,7 @@
         <v>124941</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>68</v>
@@ -5194,13 +5269,13 @@
         <v>430183</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="H7" s="7">
         <v>441</v>
@@ -5209,13 +5284,13 @@
         <v>478612</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="M7" s="7">
         <v>847</v>
@@ -5224,13 +5299,13 @@
         <v>908795</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5245,13 +5320,13 @@
         <v>72392</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="H8" s="7">
         <v>43</v>
@@ -5260,13 +5335,13 @@
         <v>44472</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="M8" s="7">
         <v>112</v>
@@ -5275,13 +5350,13 @@
         <v>116864</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,13 +5424,13 @@
         <v>266605</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="H10" s="7">
         <v>287</v>
@@ -5364,13 +5439,13 @@
         <v>292186</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>131</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="M10" s="7">
         <v>568</v>
@@ -5379,13 +5454,13 @@
         <v>558791</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5400,13 +5475,13 @@
         <v>51960</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="H11" s="7">
         <v>45</v>
@@ -5415,10 +5490,10 @@
         <v>44123</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>141</v>
@@ -5430,13 +5505,13 @@
         <v>96083</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5504,13 +5579,13 @@
         <v>295909</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="H13" s="7">
         <v>306</v>
@@ -5519,13 +5594,13 @@
         <v>332904</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="M13" s="7">
         <v>592</v>
@@ -5534,13 +5609,13 @@
         <v>628813</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5555,13 +5630,13 @@
         <v>74055</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="H14" s="7">
         <v>52</v>
@@ -5570,13 +5645,13 @@
         <v>54379</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="M14" s="7">
         <v>120</v>
@@ -5585,13 +5660,13 @@
         <v>128434</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5659,13 +5734,13 @@
         <v>193010</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="H16" s="7">
         <v>210</v>
@@ -5674,13 +5749,13 @@
         <v>205549</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="M16" s="7">
         <v>404</v>
@@ -5689,13 +5764,13 @@
         <v>398559</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5710,13 +5785,13 @@
         <v>18211</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -5725,13 +5800,13 @@
         <v>13038</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="M17" s="7">
         <v>31</v>
@@ -5740,13 +5815,13 @@
         <v>31249</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5814,13 +5889,13 @@
         <v>161463</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="H19" s="7">
         <v>170</v>
@@ -5829,13 +5904,13 @@
         <v>177583</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="M19" s="7">
         <v>331</v>
@@ -5844,13 +5919,13 @@
         <v>339046</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5865,13 +5940,13 @@
         <v>101660</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="H20" s="7">
         <v>92</v>
@@ -5880,13 +5955,13 @@
         <v>94520</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="M20" s="7">
         <v>190</v>
@@ -5895,13 +5970,13 @@
         <v>196180</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5969,13 +6044,13 @@
         <v>471495</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="H22" s="7">
         <v>483</v>
@@ -5984,13 +6059,13 @@
         <v>520977</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="M22" s="7">
         <v>904</v>
@@ -5999,13 +6074,13 @@
         <v>992471</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6020,13 +6095,13 @@
         <v>181283</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="H23" s="7">
         <v>162</v>
@@ -6035,28 +6110,28 @@
         <v>169205</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="M23" s="7">
         <v>318</v>
       </c>
       <c r="N23" s="7">
-        <v>350489</v>
+        <v>350488</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>439</v>
+        <v>458</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6098,7 +6173,7 @@
         <v>1222</v>
       </c>
       <c r="N24" s="7">
-        <v>1342960</v>
+        <v>1342959</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -6124,13 +6199,13 @@
         <v>670402</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="H25" s="7">
         <v>647</v>
@@ -6139,13 +6214,13 @@
         <v>709729</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="M25" s="7">
         <v>1293</v>
@@ -6154,13 +6229,13 @@
         <v>1380131</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6175,13 +6250,13 @@
         <v>107194</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="H26" s="7">
         <v>105</v>
@@ -6190,13 +6265,13 @@
         <v>112733</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="M26" s="7">
         <v>208</v>
@@ -6205,13 +6280,13 @@
         <v>219927</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6279,13 +6354,13 @@
         <v>2711305</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="H28" s="7">
         <v>2766</v>
@@ -6294,13 +6369,13 @@
         <v>2950790</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="M28" s="7">
         <v>5364</v>
@@ -6309,13 +6384,13 @@
         <v>5662096</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>463</v>
+        <v>482</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6330,13 +6405,13 @@
         <v>676245</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>466</v>
+        <v>485</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="H29" s="7">
         <v>567</v>
@@ -6345,13 +6420,13 @@
         <v>587922</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>469</v>
+        <v>488</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="M29" s="7">
         <v>1194</v>
@@ -6360,13 +6435,13 @@
         <v>1264167</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>471</v>
+        <v>490</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>473</v>
+        <v>492</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
